--- a/ClosedXML.Tests/Resource/Examples/Misc/DataTypesUnderDifferentCulture.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataTypesUnderDifferentCulture.xlsx
@@ -586,8 +586,8 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="25.920625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="19.920625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="25.550625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="20.480625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:3">

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataTypesUnderDifferentCulture.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataTypesUnderDifferentCulture.xlsx
@@ -587,7 +587,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="25.550625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="20.480625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="19.810625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:3">

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataTypesUnderDifferentCulture.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataTypesUnderDifferentCulture.xlsx
@@ -589,8 +589,8 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="21.370625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="16.620625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="20.910625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="16.460625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:3">

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataTypesUnderDifferentCulture.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataTypesUnderDifferentCulture.xlsx
@@ -589,8 +589,8 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="20.910625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="16.460625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.970625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="21.180625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:3">

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataTypesUnderDifferentCulture.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataTypesUnderDifferentCulture.xlsx
@@ -589,8 +589,8 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="26.970625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="21.180625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="28.210625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="22.130625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:3">

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataTypesUnderDifferentCulture.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataTypesUnderDifferentCulture.xlsx
@@ -589,8 +589,8 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="28.210625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="22.130625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.444464" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="20.775395" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:3">

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataTypesUnderDifferentCulture.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataTypesUnderDifferentCulture.xlsx
@@ -586,8 +586,8 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="25.920625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="19.920625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="25.930625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="19.910625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:3">
